--- a/public/TemplateImport/template_import_scientificgroup.xlsx
+++ b/public/TemplateImport/template_import_scientificgroup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3329E-2A62-43C3-B460-E178B9BAF0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C9E6F-9437-4458-9944-7A444BA32E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
@@ -36,40 +36,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>Mã chuyên ngành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên Chuyên ngành </t>
-  </si>
-  <si>
-    <t>Mã Khoa</t>
-  </si>
-  <si>
-    <t>FacultyId</t>
-  </si>
-  <si>
-    <t>majorName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> majorId</t>
-  </si>
-  <si>
-    <t>DCT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Đề tài test</t>
+  </si>
+  <si>
+    <t>Chưa thực hiện</t>
+  </si>
+  <si>
+    <t>20-2-2024</t>
+  </si>
+  <si>
+    <t>20-3-2024</t>
+  </si>
+  <si>
+    <t>NHÓM ĐỀ TÀI NGHIÊN CỨU KHOÁ HỌC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	DCTRTG002</t>
+  </si>
+  <si>
+    <t>Mã nhóm đề tài</t>
+  </si>
+  <si>
+    <t>Tên nhóm đề tài</t>
+  </si>
+  <si>
+    <t>Khoa-Ngành</t>
+  </si>
+  <si>
+    <t>Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>Năm bắt đầu</t>
+  </si>
+  <si>
+    <t>Năm kết thúc</t>
+  </si>
+  <si>
+    <t>Ẩn</t>
+  </si>
+  <si>
+    <t>Thời gian tạo đề tài</t>
+  </si>
+  <si>
+    <t>Tạo đề tài đến ngày</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +110,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -138,6 +167,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,55 +509,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DBA273-47A2-4126-A988-E125690B883F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E1048576 E1" xr:uid="{06CCBF21-AE8D-433F-B4CF-46AC7C56742A}">
+      <formula1>"Xác định chủ đề và vấn đề nghiên cứu, Tìm hiểu và tổng quan tài liệu, Bảo vệ kết quả nghiên cứu, Thu thập và phân tích dữ liệu,Viết và trình bày kết quả nghiên cứu,Chưa thực hiện, Hoàn thành"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{5A8F6152-3626-4C44-908B-63E9A60990C3}">
+      <formula1>"Đang thực hiện, Chưa thực hiện, Hoàn thành"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{25F5C0DD-BC29-4C4A-BE4F-4B3E1DC3F5A1}">
+      <formula1>"True, False"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/TemplateImport/template_import_scientificgroup.xlsx
+++ b/public/TemplateImport/template_import_scientificgroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\learning-app\public\TemplateImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5C9E6F-9437-4458-9944-7A444BA32E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161AF1AD-14AD-42DC-95A7-EECDB1E383EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{087D9E47-7B34-47D3-8A7D-01AE6CA50FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,70 +36,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Trạng thái</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Đề tài test</t>
   </si>
   <si>
-    <t>Chưa thực hiện</t>
-  </si>
-  <si>
-    <t>20-2-2024</t>
-  </si>
-  <si>
-    <t>20-3-2024</t>
-  </si>
-  <si>
-    <t>NHÓM ĐỀ TÀI NGHIÊN CỨU KHOÁ HỌC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	DCTRTG002</t>
+    <t>Năm bắt đầu</t>
+  </si>
+  <si>
+    <t>Năm kết thúc</t>
+  </si>
+  <si>
+    <t>Ẩn</t>
+  </si>
+  <si>
+    <t>Thời gian tạo đề tài</t>
+  </si>
+  <si>
+    <t>Tạo đề tài đến ngày</t>
+  </si>
+  <si>
+    <t>NHÓM ĐỀ TÀI NGHIÊN CỨU KHOA HỌC</t>
+  </si>
+  <si>
+    <t>statusId</t>
+  </si>
+  <si>
+    <t>startYear</t>
+  </si>
+  <si>
+    <t>finishYear</t>
+  </si>
+  <si>
+    <t>startCreateSRDate</t>
+  </si>
+  <si>
+    <t>endCreateSRDate</t>
+  </si>
+  <si>
+    <t>TTNHOMDETAINCKH001</t>
+  </si>
+  <si>
+    <t>isDisable</t>
   </si>
   <si>
     <t>Mã nhóm đề tài</t>
   </si>
   <si>
-    <t>Tên nhóm đề tài</t>
-  </si>
-  <si>
-    <t>Khoa-Ngành</t>
-  </si>
-  <si>
-    <t>Công nghệ thông tin</t>
-  </si>
-  <si>
-    <t>Năm bắt đầu</t>
-  </si>
-  <si>
-    <t>Năm kết thúc</t>
-  </si>
-  <si>
-    <t>Ẩn</t>
-  </si>
-  <si>
-    <t>Thời gian tạo đề tài</t>
-  </si>
-  <si>
-    <t>Tạo đề tài đến ngày</t>
+    <t>Tên đề tài</t>
+  </si>
+  <si>
+    <t>scientificResearchId</t>
+  </si>
+  <si>
+    <t>DCTPROJECT002</t>
+  </si>
+  <si>
+    <t>Mã trạng thái</t>
+  </si>
+  <si>
+    <t>scientificResearchGroupId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -116,11 +120,32 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,43 +165,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,241 +539,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DBA273-47A2-4126-A988-E125690B883F}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="34.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="46.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="37.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D4" s="5">
+        <v>2023</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44117.333333333336</v>
+      </c>
+      <c r="G4" s="6">
+        <v>44185.333333333336</v>
+      </c>
+      <c r="H4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2023</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2024</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E16:E1048576 E1" xr:uid="{06CCBF21-AE8D-433F-B4CF-46AC7C56742A}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576" xr:uid="{06CCBF21-AE8D-433F-B4CF-46AC7C56742A}">
       <formula1>"Xác định chủ đề và vấn đề nghiên cứu, Tìm hiểu và tổng quan tài liệu, Bảo vệ kết quả nghiên cứu, Thu thập và phân tích dữ liệu,Viết và trình bày kết quả nghiên cứu,Chưa thực hiện, Hoàn thành"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{5A8F6152-3626-4C44-908B-63E9A60990C3}">
-      <formula1>"Đang thực hiện, Chưa thực hiện, Hoàn thành"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{25F5C0DD-BC29-4C4A-BE4F-4B3E1DC3F5A1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4:H1048576" xr:uid="{25F5C0DD-BC29-4C4A-BE4F-4B3E1DC3F5A1}">
       <formula1>"True, False"</formula1>
     </dataValidation>
   </dataValidations>
